--- a/dataset/squad_preds_metrics_t0.6_deberta.xlsx
+++ b/dataset/squad_preds_metrics_t0.6_deberta.xlsx
@@ -11650,6 +11650,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中国人民大学</t>
     </r>
@@ -13310,7 +13311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -13346,6 +13347,15 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -13359,6 +13369,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -13410,7 +13421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13431,11 +13442,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13518,11 +13533,11 @@
   </sheetPr>
   <dimension ref="A1:M1185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L97" activeCellId="2" sqref="L95 M92 L97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
@@ -13978,7 +13993,7 @@
       <c r="K11" s="0" t="n">
         <v>0.666666662222222</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -14432,7 +14447,7 @@
       <c r="L22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15126,7 +15141,7 @@
       <c r="K39" s="0" t="n">
         <v>0.49999999625</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -15287,7 +15302,7 @@
       <c r="K43" s="0" t="n">
         <v>0.49999999625</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -15533,7 +15548,7 @@
       <c r="K49" s="0" t="n">
         <v>0.666666662222222</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -15659,7 +15674,7 @@
       <c r="L52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15741,7 +15756,7 @@
       <c r="L54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15782,7 +15797,7 @@
       <c r="L55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16025,7 +16040,7 @@
       <c r="K61" s="0" t="n">
         <v>0.49999999625</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -16271,7 +16286,7 @@
       <c r="K67" s="0" t="n">
         <v>0.333333330555556</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -16722,11 +16737,11 @@
       <c r="K78" s="0" t="n">
         <v>0.571428566530612</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17299,7 +17314,7 @@
       <c r="L92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="M92" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -53211,7 +53226,7 @@
       <c r="D1037" s="0" t="s">
         <v>3873</v>
       </c>
-      <c r="E1037" s="6" t="s">
+      <c r="E1037" s="7" t="s">
         <v>3874</v>
       </c>
       <c r="F1037" s="0" t="n">
@@ -57198,7 +57213,7 @@
       <c r="D1142" s="0" t="s">
         <v>4259</v>
       </c>
-      <c r="E1142" s="6" t="s">
+      <c r="E1142" s="7" t="s">
         <v>4260</v>
       </c>
       <c r="F1142" s="0" t="n">
@@ -57803,7 +57818,7 @@
       <c r="D1158" s="0" t="s">
         <v>4318</v>
       </c>
-      <c r="E1158" s="6" t="s">
+      <c r="E1158" s="7" t="s">
         <v>4319</v>
       </c>
       <c r="F1158" s="0" t="n">
